--- a/asset/Technology-Stock-Data.xlsx
+++ b/asset/Technology-Stock-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\My Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED5F681F-3CD1-4AE8-8662-681B8213AF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFEDFD1F-C401-425D-BAC3-A1F2B43A24C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="13" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
   </bookViews>
   <sheets>
     <sheet name="systemparameter" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="732">
   <si>
     <t>companyName</t>
   </si>
@@ -2236,6 +2236,12 @@
   </si>
   <si>
     <t>LZ12345644</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2293,9 +2299,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -11506,7 +11509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7AF2DD-2665-4F8B-97C4-A758230CD90F}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -15737,8 +15740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69916872-AAC6-416F-8C41-4B26E1463A57}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15752,6 +15755,7 @@
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -15836,7 +15840,7 @@
         <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15877,7 +15881,7 @@
         <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15918,7 +15922,7 @@
         <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15959,7 +15963,7 @@
         <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16000,7 +16004,7 @@
         <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16041,7 +16045,7 @@
         <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16082,7 +16086,7 @@
         <v>43</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16123,7 +16127,7 @@
         <v>43</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16164,7 +16168,7 @@
         <v>43</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16205,7 +16209,7 @@
         <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16246,7 +16250,7 @@
         <v>43</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16287,7 +16291,7 @@
         <v>43</v>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16328,7 +16332,7 @@
         <v>43</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16369,7 +16373,7 @@
         <v>43</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16410,7 +16414,7 @@
         <v>43</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16451,7 +16455,7 @@
         <v>43</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16492,7 +16496,7 @@
         <v>43</v>
       </c>
       <c r="M18" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16533,7 +16537,7 @@
         <v>43</v>
       </c>
       <c r="M19" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16574,7 +16578,7 @@
         <v>43</v>
       </c>
       <c r="M20" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16615,7 +16619,7 @@
         <v>43</v>
       </c>
       <c r="M21" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16656,7 +16660,7 @@
         <v>43</v>
       </c>
       <c r="M22" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16697,7 +16701,7 @@
         <v>43</v>
       </c>
       <c r="M23" t="s">
-        <v>43</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17476,7 +17480,7 @@
         <v>43</v>
       </c>
       <c r="M42" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17517,7 +17521,7 @@
         <v>43</v>
       </c>
       <c r="M43" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17558,7 +17562,7 @@
         <v>43</v>
       </c>
       <c r="M44" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17599,7 +17603,7 @@
         <v>43</v>
       </c>
       <c r="M45" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17640,7 +17644,7 @@
         <v>43</v>
       </c>
       <c r="M46" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17722,7 +17726,7 @@
         <v>43</v>
       </c>
       <c r="M48" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17760,7 +17764,7 @@
         <v>15</v>
       </c>
       <c r="L49" t="s">
-        <v>43</v>
+        <v>731</v>
       </c>
       <c r="M49" t="s">
         <v>43</v>
@@ -17804,7 +17808,7 @@
         <v>43</v>
       </c>
       <c r="M50" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17845,7 +17849,7 @@
         <v>43</v>
       </c>
       <c r="M51" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17883,7 +17887,7 @@
         <v>13</v>
       </c>
       <c r="L52" t="s">
-        <v>43</v>
+        <v>731</v>
       </c>
       <c r="M52" t="s">
         <v>43</v>
@@ -17927,7 +17931,7 @@
         <v>43</v>
       </c>
       <c r="M53" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17968,7 +17972,7 @@
         <v>43</v>
       </c>
       <c r="M54" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18009,7 +18013,7 @@
         <v>43</v>
       </c>
       <c r="M55" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18050,7 +18054,7 @@
         <v>43</v>
       </c>
       <c r="M56" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18173,7 +18177,7 @@
         <v>43</v>
       </c>
       <c r="M59" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18255,7 +18259,7 @@
         <v>43</v>
       </c>
       <c r="M61" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18296,7 +18300,7 @@
         <v>43</v>
       </c>
       <c r="M62" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18337,7 +18341,7 @@
         <v>43</v>
       </c>
       <c r="M63" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -19058,7 +19062,7 @@
       <c r="A1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -19087,7 +19091,7 @@
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C2" s="2">
@@ -19116,7 +19120,7 @@
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C3" s="2">
@@ -19145,7 +19149,7 @@
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C4" s="2">
@@ -19174,7 +19178,7 @@
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C5" s="2">
@@ -19203,7 +19207,7 @@
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C6" s="2">
@@ -19232,7 +19236,7 @@
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>266</v>
       </c>
       <c r="C7" s="2">
@@ -19261,7 +19265,7 @@
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C8" s="2">
@@ -19290,7 +19294,7 @@
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C9" s="2">
@@ -19319,7 +19323,7 @@
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C10" s="2">
@@ -19348,7 +19352,7 @@
       <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C11" s="2">
@@ -19377,7 +19381,7 @@
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C12" s="2">
@@ -19406,7 +19410,7 @@
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C13" s="2">
@@ -19435,7 +19439,7 @@
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C14" s="2">
@@ -19464,7 +19468,7 @@
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C15" s="2">
@@ -19493,7 +19497,7 @@
       <c r="A16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C16" s="2">
@@ -19522,7 +19526,7 @@
       <c r="A17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C17" s="2">
@@ -19551,7 +19555,7 @@
       <c r="A18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>239</v>
       </c>
       <c r="C18" s="2">
@@ -19580,7 +19584,7 @@
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C19" s="2">
@@ -19609,7 +19613,7 @@
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C20" s="2">
@@ -19638,7 +19642,7 @@
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C21" s="2">
@@ -19667,7 +19671,7 @@
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>283</v>
       </c>
       <c r="C22" s="2">
@@ -19696,7 +19700,7 @@
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>343</v>
       </c>
       <c r="C23" s="2">
@@ -19725,7 +19729,7 @@
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>344</v>
       </c>
       <c r="C24" s="2">
@@ -19754,7 +19758,7 @@
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C25" s="2">
@@ -19783,7 +19787,7 @@
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C26" s="2">
@@ -19812,7 +19816,7 @@
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C27" s="2">
@@ -19841,7 +19845,7 @@
       <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>352</v>
       </c>
       <c r="C28" s="2">
@@ -19870,7 +19874,7 @@
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>353</v>
       </c>
       <c r="C29" s="2">
@@ -19899,7 +19903,7 @@
       <c r="A30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>354</v>
       </c>
       <c r="C30" s="2">
@@ -19928,7 +19932,7 @@
       <c r="A31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>355</v>
       </c>
       <c r="C31" s="2">
@@ -19957,7 +19961,7 @@
       <c r="A32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>356</v>
       </c>
       <c r="C32" s="2">
@@ -19986,7 +19990,7 @@
       <c r="A33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>314</v>
       </c>
       <c r="C33" s="2">
@@ -20015,7 +20019,7 @@
       <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C34" s="2">
@@ -20044,7 +20048,7 @@
       <c r="A35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C35" s="2">
@@ -20073,7 +20077,7 @@
       <c r="A36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C36" s="2">
@@ -20102,7 +20106,7 @@
       <c r="A37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C37" s="2">
@@ -20131,7 +20135,7 @@
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C38" s="2">

--- a/asset/Technology-Stock-Data.xlsx
+++ b/asset/Technology-Stock-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\My Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFEDFD1F-C401-425D-BAC3-A1F2B43A24C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A7F956-D382-4C6D-A5BE-E7C15980B73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="14" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
   </bookViews>
   <sheets>
     <sheet name="systemparameter" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="760">
   <si>
     <t>companyName</t>
   </si>
@@ -558,9 +558,6 @@
     <t>dedicated</t>
   </si>
   <si>
-    <t>maximum capacity</t>
-  </si>
-  <si>
     <t>Smart phone storage</t>
   </si>
   <si>
@@ -2242,13 +2239,100 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>william@go.com</t>
+  </si>
+  <si>
+    <t>emilly@go.com</t>
+  </si>
+  <si>
+    <t>james@go.com</t>
+  </si>
+  <si>
+    <t>olivia@go.com</t>
+  </si>
+  <si>
+    <t>noah@go.com</t>
+  </si>
+  <si>
+    <t>sophia@go.com</t>
+  </si>
+  <si>
+    <t>ethan@go.com</t>
+  </si>
+  <si>
+    <t>mia@go.com</t>
+  </si>
+  <si>
+    <t>liam@go.com</t>
+  </si>
+  <si>
+    <t>ava@go.com</t>
+  </si>
+  <si>
+    <t>jhon@go.com</t>
+  </si>
+  <si>
+    <t>mary@go.com</t>
+  </si>
+  <si>
+    <t>robert@go.com</t>
+  </si>
+  <si>
+    <t>patricia@go.com</t>
+  </si>
+  <si>
+    <t>michael@go.com</t>
+  </si>
+  <si>
+    <t>jenifer@go.com</t>
+  </si>
+  <si>
+    <t>davis@go.com</t>
+  </si>
+  <si>
+    <t>david@go.com</t>
+  </si>
+  <si>
+    <t>susan@go.com</t>
+  </si>
+  <si>
+    <t>budi@go.com</t>
+  </si>
+  <si>
+    <t>putri@go.com</t>
+  </si>
+  <si>
+    <t>irfan@go.com</t>
+  </si>
+  <si>
+    <t>siti@go.com</t>
+  </si>
+  <si>
+    <t>rizki@go.com</t>
+  </si>
+  <si>
+    <t>mohammed@go.com</t>
+  </si>
+  <si>
+    <t>andi@go.com</t>
+  </si>
+  <si>
+    <t>dian@go.com</t>
+  </si>
+  <si>
+    <t>fajar@go.com</t>
+  </si>
+  <si>
+    <t>nia@go.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2268,6 +2352,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2286,10 +2376,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2301,8 +2392,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7337,22 +7432,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7360,19 +7455,19 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7380,19 +7475,19 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D3" s="2">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7400,19 +7495,19 @@
         <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D4" s="2">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7420,19 +7515,19 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7440,19 +7535,19 @@
         <v>143</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -7475,13 +7570,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>35</v>
@@ -7495,7 +7590,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2">
         <v>1010</v>
@@ -7515,7 +7610,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="2">
         <v>1010</v>
@@ -7535,7 +7630,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="2">
         <v>1010</v>
@@ -7555,7 +7650,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="2">
         <v>1010</v>
@@ -7575,7 +7670,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" s="2">
         <v>1010</v>
@@ -7595,7 +7690,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="2">
         <v>1010</v>
@@ -7615,7 +7710,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="2">
         <v>1010</v>
@@ -7635,7 +7730,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9" s="2">
         <v>1010</v>
@@ -7655,7 +7750,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" s="2">
         <v>1010</v>
@@ -7675,7 +7770,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B11" s="2">
         <v>1010</v>
@@ -7695,7 +7790,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12" s="2">
         <v>1010</v>
@@ -7715,7 +7810,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" s="2">
         <v>1010</v>
@@ -7735,7 +7830,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B14" s="2">
         <v>1010</v>
@@ -7755,7 +7850,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" s="2">
         <v>1010</v>
@@ -7775,7 +7870,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B16" s="2">
         <v>1010</v>
@@ -7795,7 +7890,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B17" s="2">
         <v>1010</v>
@@ -7815,7 +7910,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B18" s="2">
         <v>1010</v>
@@ -7835,7 +7930,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B19" s="2">
         <v>1010</v>
@@ -7855,7 +7950,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B20" s="2">
         <v>1010</v>
@@ -7875,7 +7970,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" s="2">
         <v>1010</v>
@@ -7895,7 +7990,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B22" s="2">
         <v>1010</v>
@@ -7915,7 +8010,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B23" s="2">
         <v>1010</v>
@@ -7935,7 +8030,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B24" s="2">
         <v>1020</v>
@@ -7955,7 +8050,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2">
         <v>1020</v>
@@ -7975,7 +8070,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B26" s="2">
         <v>1020</v>
@@ -7995,7 +8090,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" s="2">
         <v>1020</v>
@@ -8015,7 +8110,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2">
         <v>1020</v>
@@ -8035,7 +8130,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2">
         <v>1020</v>
@@ -8055,7 +8150,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2">
         <v>1020</v>
@@ -8075,7 +8170,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2">
         <v>1020</v>
@@ -8095,7 +8190,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" s="2">
         <v>1020</v>
@@ -8115,7 +8210,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" s="2">
         <v>1020</v>
@@ -8135,7 +8230,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2">
         <v>1020</v>
@@ -8155,7 +8250,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" s="2">
         <v>1020</v>
@@ -8175,7 +8270,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2">
         <v>1020</v>
@@ -8195,7 +8290,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2">
         <v>1020</v>
@@ -8215,7 +8310,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2">
         <v>1020</v>
@@ -8235,7 +8330,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B39" s="2">
         <v>1020</v>
@@ -8255,7 +8350,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B40" s="2">
         <v>1020</v>
@@ -8275,7 +8370,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B41" s="2">
         <v>1020</v>
@@ -8295,7 +8390,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2">
         <v>1020</v>
@@ -8315,7 +8410,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B43" s="2">
         <v>1020</v>
@@ -8335,7 +8430,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B44" s="2">
         <v>1020</v>
@@ -8355,7 +8450,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B45" s="2">
         <v>1020</v>
@@ -8375,7 +8470,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B46" s="2">
         <v>1020</v>
@@ -8395,7 +8490,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B47" s="2">
         <v>1020</v>
@@ -8415,7 +8510,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B48" s="2">
         <v>1020</v>
@@ -8435,7 +8530,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" s="2">
         <v>1020</v>
@@ -8455,7 +8550,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B50" s="2">
         <v>1020</v>
@@ -8475,7 +8570,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B51" s="2">
         <v>1020</v>
@@ -8495,7 +8590,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B52" s="2">
         <v>1020</v>
@@ -8515,7 +8610,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B53" s="2">
         <v>1020</v>
@@ -8535,7 +8630,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B54" s="2">
         <v>1020</v>
@@ -8555,7 +8650,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B55" s="2">
         <v>1020</v>
@@ -8575,7 +8670,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B56" s="2">
         <v>1020</v>
@@ -8595,7 +8690,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B57" s="2">
         <v>1030</v>
@@ -8615,7 +8710,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B58" s="2">
         <v>1030</v>
@@ -8635,7 +8730,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B59" s="2">
         <v>1030</v>
@@ -8655,7 +8750,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B60" s="2">
         <v>1030</v>
@@ -8675,7 +8770,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B61" s="2">
         <v>1030</v>
@@ -8695,7 +8790,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B62" s="2">
         <v>1030</v>
@@ -8715,7 +8810,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B63" s="2">
         <v>1030</v>
@@ -8735,7 +8830,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B64" s="2">
         <v>1030</v>
@@ -8755,7 +8850,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B65" s="2">
         <v>1030</v>
@@ -8775,7 +8870,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B66" s="2">
         <v>1030</v>
@@ -8795,7 +8890,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B67" s="2">
         <v>1030</v>
@@ -8815,7 +8910,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B68" s="2">
         <v>1030</v>
@@ -8835,7 +8930,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B69" s="2">
         <v>1040</v>
@@ -8855,7 +8950,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B70" s="2">
         <v>1040</v>
@@ -8875,7 +8970,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B71" s="2">
         <v>1040</v>
@@ -8895,7 +8990,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B72" s="2">
         <v>1040</v>
@@ -8915,7 +9010,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B73" s="2">
         <v>1040</v>
@@ -8935,7 +9030,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B74" s="2">
         <v>1040</v>
@@ -8955,7 +9050,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B75" s="2">
         <v>1040</v>
@@ -8975,7 +9070,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B76" s="2">
         <v>1040</v>
@@ -8995,7 +9090,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B77" s="2">
         <v>1040</v>
@@ -9015,7 +9110,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B78" s="2">
         <v>1040</v>
@@ -9035,7 +9130,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B79" s="2">
         <v>1040</v>
@@ -9055,7 +9150,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B80" s="2">
         <v>1050</v>
@@ -9075,7 +9170,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B81" s="2">
         <v>1050</v>
@@ -9095,7 +9190,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B82" s="2">
         <v>1050</v>
@@ -9115,7 +9210,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B83" s="2">
         <v>1050</v>
@@ -9135,7 +9230,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B84" s="2">
         <v>1050</v>
@@ -9155,7 +9250,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B85" s="2">
         <v>1050</v>
@@ -9175,7 +9270,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B86" s="2">
         <v>1050</v>
@@ -9195,7 +9290,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B87" s="2">
         <v>1050</v>
@@ -9215,7 +9310,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B88" s="2">
         <v>1050</v>
@@ -9235,7 +9330,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B89" s="2">
         <v>1050</v>
@@ -9255,7 +9350,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B90" s="2">
         <v>1050</v>
@@ -9275,7 +9370,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B91" s="2">
         <v>1050</v>
@@ -9295,7 +9390,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B92" s="2">
         <v>1050</v>
@@ -9315,7 +9410,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B93" s="2">
         <v>1050</v>
@@ -9335,7 +9430,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B94" s="2">
         <v>1050</v>
@@ -9355,7 +9450,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B95" s="2">
         <v>1050</v>
@@ -9375,7 +9470,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B96" s="2">
         <v>1050</v>
@@ -9395,7 +9490,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B97" s="2">
         <v>1050</v>
@@ -9415,7 +9510,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B98" s="2">
         <v>1050</v>
@@ -9435,7 +9530,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B99" s="2">
         <v>1050</v>
@@ -9455,7 +9550,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B100" s="2">
         <v>1050</v>
@@ -9475,7 +9570,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B101" s="2">
         <v>1050</v>
@@ -9495,7 +9590,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B102" s="2">
         <v>1060</v>
@@ -9515,7 +9610,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B103" s="2">
         <v>1060</v>
@@ -9535,7 +9630,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B104" s="2">
         <v>1060</v>
@@ -9555,7 +9650,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B105" s="2">
         <v>1060</v>
@@ -9575,7 +9670,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B106" s="2">
         <v>1060</v>
@@ -9595,7 +9690,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B107" s="2">
         <v>1060</v>
@@ -9615,7 +9710,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B108" s="2">
         <v>1060</v>
@@ -9635,7 +9730,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B109" s="2">
         <v>1060</v>
@@ -9655,7 +9750,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B110" s="2">
         <v>1060</v>
@@ -9675,7 +9770,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B111" s="2">
         <v>1060</v>
@@ -9695,7 +9790,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B112" s="2">
         <v>1060</v>
@@ -9715,7 +9810,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B113" s="2">
         <v>1060</v>
@@ -9735,7 +9830,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B114" s="2">
         <v>1060</v>
@@ -9755,7 +9850,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B115" s="2">
         <v>1060</v>
@@ -9775,7 +9870,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B116" s="2">
         <v>1060</v>
@@ -9795,7 +9890,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B117" s="2">
         <v>1060</v>
@@ -9815,7 +9910,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B118" s="2">
         <v>1060</v>
@@ -9835,7 +9930,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B119" s="2">
         <v>1060</v>
@@ -9855,7 +9950,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B120" s="2">
         <v>1060</v>
@@ -9875,7 +9970,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B121" s="2">
         <v>1060</v>
@@ -9895,7 +9990,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B122" s="2">
         <v>1060</v>
@@ -9915,7 +10010,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B123" s="2">
         <v>1060</v>
@@ -9935,7 +10030,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B124" s="2">
         <v>1070</v>
@@ -9955,7 +10050,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B125" s="2">
         <v>1070</v>
@@ -9975,7 +10070,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B126" s="2">
         <v>1070</v>
@@ -9995,7 +10090,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B127" s="2">
         <v>1070</v>
@@ -10015,7 +10110,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B128" s="2">
         <v>1070</v>
@@ -10035,7 +10130,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B129" s="2">
         <v>1070</v>
@@ -10055,7 +10150,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B130" s="2">
         <v>1070</v>
@@ -10075,7 +10170,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B131" s="2">
         <v>1070</v>
@@ -10095,7 +10190,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B132" s="2">
         <v>1070</v>
@@ -10115,7 +10210,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B133" s="2">
         <v>1070</v>
@@ -10135,7 +10230,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B134" s="2">
         <v>1070</v>
@@ -10155,7 +10250,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B135" s="2">
         <v>1070</v>
@@ -10175,7 +10270,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B136" s="2">
         <v>1070</v>
@@ -10195,7 +10290,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B137" s="2">
         <v>1070</v>
@@ -10215,7 +10310,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B138" s="2">
         <v>1070</v>
@@ -10235,7 +10330,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B139" s="2">
         <v>1070</v>
@@ -10255,7 +10350,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B140" s="2">
         <v>1070</v>
@@ -10275,7 +10370,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B141" s="2">
         <v>1070</v>
@@ -10295,7 +10390,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B142" s="2">
         <v>1070</v>
@@ -10315,7 +10410,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B143" s="2">
         <v>1070</v>
@@ -10335,7 +10430,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B144" s="2">
         <v>1070</v>
@@ -10355,7 +10450,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B145" s="2">
         <v>1070</v>
@@ -10375,7 +10470,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B146" s="2">
         <v>1080</v>
@@ -10395,7 +10490,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B147" s="2">
         <v>1080</v>
@@ -10415,7 +10510,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B148" s="2">
         <v>1080</v>
@@ -10435,7 +10530,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B149" s="2">
         <v>1080</v>
@@ -10455,7 +10550,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B150" s="2">
         <v>1080</v>
@@ -10475,7 +10570,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B151" s="2">
         <v>1080</v>
@@ -10495,7 +10590,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B152" s="2">
         <v>1080</v>
@@ -10515,7 +10610,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B153" s="2">
         <v>1080</v>
@@ -10535,7 +10630,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B154" s="2">
         <v>1080</v>
@@ -10555,7 +10650,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B155" s="2">
         <v>1080</v>
@@ -10575,7 +10670,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B156" s="2">
         <v>1080</v>
@@ -10595,7 +10690,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B157" s="2">
         <v>1090</v>
@@ -10615,7 +10710,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B158" s="2">
         <v>1090</v>
@@ -10635,7 +10730,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B159" s="2">
         <v>1090</v>
@@ -10655,7 +10750,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B160" s="2">
         <v>1090</v>
@@ -10675,7 +10770,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B161" s="2">
         <v>1090</v>
@@ -10695,7 +10790,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B162" s="2">
         <v>1090</v>
@@ -10715,7 +10810,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B163" s="2">
         <v>1090</v>
@@ -10735,7 +10830,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B164" s="2">
         <v>1090</v>
@@ -10755,7 +10850,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B165" s="2">
         <v>1090</v>
@@ -10775,7 +10870,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B166" s="2">
         <v>1090</v>
@@ -10795,7 +10890,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B167" s="2">
         <v>1090</v>
@@ -10815,7 +10910,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B168" s="2">
         <v>1090</v>
@@ -10835,7 +10930,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B169" s="2">
         <v>1090</v>
@@ -10855,7 +10950,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B170" s="2">
         <v>1090</v>
@@ -10875,7 +10970,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B171" s="2">
         <v>1090</v>
@@ -10895,7 +10990,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B172" s="2">
         <v>1090</v>
@@ -10915,7 +11010,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B173" s="2">
         <v>1090</v>
@@ -10935,7 +11030,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B174" s="2">
         <v>1090</v>
@@ -10955,7 +11050,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B175" s="2">
         <v>1090</v>
@@ -10975,7 +11070,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B176" s="2">
         <v>1090</v>
@@ -10995,7 +11090,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B177" s="2">
         <v>1090</v>
@@ -11015,7 +11110,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B178" s="2">
         <v>1090</v>
@@ -11065,39 +11160,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -11106,135 +11201,135 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -11260,242 +11355,242 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" t="s">
         <v>427</v>
-      </c>
-      <c r="B2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" t="s">
         <v>429</v>
-      </c>
-      <c r="B3" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" t="s">
         <v>431</v>
-      </c>
-      <c r="B4" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" t="s">
         <v>434</v>
-      </c>
-      <c r="B6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -11521,30 +11616,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -11556,10 +11651,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="2">
         <v>6</v>
@@ -11567,7 +11662,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -11579,10 +11674,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3" s="2">
         <v>9</v>
@@ -11590,7 +11685,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -11602,10 +11697,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G4" s="2">
         <v>4</v>
@@ -11613,7 +11708,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -11625,10 +11720,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5" s="2">
         <v>9</v>
@@ -11636,7 +11731,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -11648,10 +11743,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G6" s="2">
         <v>9</v>
@@ -11659,7 +11754,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -11671,10 +11766,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
@@ -11682,7 +11777,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
@@ -11694,10 +11789,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G8" s="2">
         <v>2</v>
@@ -11705,7 +11800,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -11717,10 +11812,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G9" s="2">
         <v>5</v>
@@ -11728,7 +11823,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -11740,10 +11835,10 @@
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
@@ -11751,7 +11846,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -11763,10 +11858,10 @@
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
@@ -11774,7 +11869,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -11786,10 +11881,10 @@
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
@@ -11797,7 +11892,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -11809,10 +11904,10 @@
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G13" s="2">
         <v>7</v>
@@ -11820,7 +11915,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -11832,10 +11927,10 @@
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G14" s="2">
         <v>10</v>
@@ -11843,7 +11938,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -11855,10 +11950,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G15" s="2">
         <v>10</v>
@@ -11866,7 +11961,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B16" s="2">
         <v>5</v>
@@ -11878,10 +11973,10 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G16" s="2">
         <v>9</v>
@@ -11889,7 +11984,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -11901,10 +11996,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G17" s="2">
         <v>8</v>
@@ -11912,7 +12007,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -11924,10 +12019,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -11935,7 +12030,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -11947,10 +12042,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
@@ -11958,7 +12053,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
@@ -11970,10 +12065,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G20" s="2">
         <v>4</v>
@@ -11981,7 +12076,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -11993,10 +12088,10 @@
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G21" s="2">
         <v>6</v>
@@ -12004,7 +12099,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -12016,10 +12111,10 @@
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G22" s="2">
         <v>5</v>
@@ -12027,7 +12122,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -12039,10 +12134,10 @@
         <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G23" s="2">
         <v>9</v>
@@ -12050,7 +12145,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -12062,10 +12157,10 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
@@ -12073,7 +12168,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -12085,10 +12180,10 @@
         <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G25" s="2">
         <v>5</v>
@@ -12096,7 +12191,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -12108,10 +12203,10 @@
         <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G26" s="2">
         <v>7</v>
@@ -12119,7 +12214,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -12131,10 +12226,10 @@
         <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G27" s="2">
         <v>3</v>
@@ -12142,22 +12237,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G28" s="2">
         <v>4</v>
@@ -12165,7 +12260,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -12177,10 +12272,10 @@
         <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G29" s="2">
         <v>5</v>
@@ -12188,7 +12283,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
@@ -12200,10 +12295,10 @@
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G30" s="2">
         <v>2</v>
@@ -12211,7 +12306,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
@@ -12223,10 +12318,10 @@
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G31" s="2">
         <v>4</v>
@@ -12234,7 +12329,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
@@ -12246,10 +12341,10 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G32" s="2">
         <v>3</v>
@@ -12257,7 +12352,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B33" s="2">
         <v>5</v>
@@ -12269,10 +12364,10 @@
         <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G33" s="2">
         <v>6</v>
@@ -12280,7 +12375,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B34" s="2">
         <v>6</v>
@@ -12292,10 +12387,10 @@
         <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G34" s="2">
         <v>10</v>
@@ -12303,7 +12398,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B35" s="2">
         <v>7</v>
@@ -12315,10 +12410,10 @@
         <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G35" s="2">
         <v>2</v>
@@ -12326,7 +12421,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -12338,10 +12433,10 @@
         <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G36" s="2">
         <v>3</v>
@@ -12349,7 +12444,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
@@ -12361,10 +12456,10 @@
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G37" s="2">
         <v>6</v>
@@ -12372,7 +12467,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B38" s="2">
         <v>3</v>
@@ -12384,10 +12479,10 @@
         <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G38" s="2">
         <v>3</v>
@@ -12395,7 +12490,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B39" s="2">
         <v>4</v>
@@ -12407,10 +12502,10 @@
         <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G39" s="2">
         <v>10</v>
@@ -12418,7 +12513,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B40" s="2">
         <v>5</v>
@@ -12430,10 +12525,10 @@
         <v>14</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -12441,7 +12536,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -12453,10 +12548,10 @@
         <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G41" s="2">
         <v>4</v>
@@ -12464,7 +12559,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -12476,10 +12571,10 @@
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -12487,7 +12582,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -12499,10 +12594,10 @@
         <v>14</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G43" s="2">
         <v>2</v>
@@ -12510,7 +12605,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -12522,10 +12617,10 @@
         <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G44" s="2">
         <v>6</v>
@@ -12533,7 +12628,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -12545,10 +12640,10 @@
         <v>14</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G45" s="2">
         <v>7</v>
@@ -12556,7 +12651,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B46" s="2">
         <v>2</v>
@@ -12568,10 +12663,10 @@
         <v>14</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G46" s="2">
         <v>10</v>
@@ -12579,7 +12674,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B47" s="2">
         <v>3</v>
@@ -12591,10 +12686,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G47" s="2">
         <v>10</v>
@@ -12602,7 +12697,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B48" s="2">
         <v>4</v>
@@ -12614,10 +12709,10 @@
         <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G48" s="2">
         <v>4</v>
@@ -12625,7 +12720,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -12637,10 +12732,10 @@
         <v>14</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G49" s="2">
         <v>7</v>
@@ -12648,7 +12743,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B50" s="2">
         <v>2</v>
@@ -12660,10 +12755,10 @@
         <v>14</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G50" s="2">
         <v>7</v>
@@ -12671,7 +12766,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B51" s="2">
         <v>3</v>
@@ -12683,10 +12778,10 @@
         <v>14</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G51" s="2">
         <v>9</v>
@@ -12694,7 +12789,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
@@ -12706,10 +12801,10 @@
         <v>14</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G52" s="2">
         <v>10</v>
@@ -12717,7 +12812,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B53" s="2">
         <v>2</v>
@@ -12726,13 +12821,13 @@
         <v>137</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G53" s="2">
         <v>9</v>
@@ -12740,7 +12835,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B54" s="2">
         <v>3</v>
@@ -12752,10 +12847,10 @@
         <v>14</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G54" s="2">
         <v>6</v>
@@ -12763,7 +12858,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B55" s="2">
         <v>4</v>
@@ -12775,10 +12870,10 @@
         <v>14</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
@@ -12786,7 +12881,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B56" s="2">
         <v>5</v>
@@ -12795,13 +12890,13 @@
         <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G56" s="2">
         <v>8</v>
@@ -12809,7 +12904,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
@@ -12821,10 +12916,10 @@
         <v>14</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G57" s="2">
         <v>7</v>
@@ -12832,7 +12927,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
@@ -12844,10 +12939,10 @@
         <v>14</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G58" s="2">
         <v>5</v>
@@ -12855,7 +12950,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B59" s="2">
         <v>3</v>
@@ -12867,10 +12962,10 @@
         <v>14</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G59" s="2">
         <v>5</v>
@@ -12878,7 +12973,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B60" s="2">
         <v>4</v>
@@ -12890,10 +12985,10 @@
         <v>14</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G60" s="2">
         <v>5</v>
@@ -12901,7 +12996,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B61" s="2">
         <v>5</v>
@@ -12913,10 +13008,10 @@
         <v>14</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G61" s="2">
         <v>4</v>
@@ -12924,7 +13019,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B62" s="2">
         <v>6</v>
@@ -12936,10 +13031,10 @@
         <v>14</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G62" s="2">
         <v>8</v>
@@ -12947,7 +13042,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B63" s="2">
         <v>7</v>
@@ -12959,10 +13054,10 @@
         <v>14</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G63" s="2">
         <v>5</v>
@@ -12970,7 +13065,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B64" s="2">
         <v>8</v>
@@ -12982,10 +13077,10 @@
         <v>14</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G64" s="2">
         <v>3</v>
@@ -12993,7 +13088,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2">
         <v>9</v>
@@ -13005,10 +13100,10 @@
         <v>14</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G65" s="2">
         <v>6</v>
@@ -13016,7 +13111,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B66" s="2">
         <v>10</v>
@@ -13028,10 +13123,10 @@
         <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G66" s="2">
         <v>10</v>
@@ -13039,7 +13134,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -13051,10 +13146,10 @@
         <v>14</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G67" s="2">
         <v>5</v>
@@ -13062,22 +13157,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B68" s="2">
         <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G68" s="2">
         <v>9</v>
@@ -13085,22 +13180,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B69" s="2">
         <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G69" s="2">
         <v>5</v>
@@ -13108,22 +13203,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G70" s="2">
         <v>3</v>
@@ -13131,22 +13226,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B71" s="2">
         <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G71" s="2">
         <v>10</v>
@@ -13154,22 +13249,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G72" s="2">
         <v>5</v>
@@ -13177,22 +13272,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G73" s="2">
         <v>8</v>
@@ -13200,22 +13295,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G74" s="2">
         <v>10</v>
@@ -13223,22 +13318,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B75" s="2">
         <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G75" s="2">
         <v>3</v>
@@ -13246,22 +13341,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B76" s="2">
         <v>3</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G76" s="2">
         <v>5</v>
@@ -13269,22 +13364,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B77" s="2">
         <v>4</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G77" s="2">
         <v>2</v>
@@ -13292,22 +13387,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B78" s="2">
         <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G78" s="2">
         <v>10</v>
@@ -13315,22 +13410,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B79" s="2">
         <v>6</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G79" s="2">
         <v>6</v>
@@ -13338,22 +13433,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B80" s="2">
         <v>7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G80" s="2">
         <v>2</v>
@@ -13370,8 +13465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A43395-5AED-4717-8057-5433ACD35E7E}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13382,1090 +13477,1123 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
+      <c r="K2" s="5" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
+      <c r="K3" s="5" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
+      <c r="K4" s="5" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>14</v>
+      <c r="K5" s="5" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>14</v>
+      <c r="K6" s="5" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>14</v>
+      <c r="K7" s="5" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>14</v>
+      <c r="K8" s="5" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>14</v>
+      <c r="K9" s="5" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>14</v>
+      <c r="K10" s="5" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>14</v>
+      <c r="K11" s="5" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>14</v>
+      <c r="K12" s="5" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>14</v>
+      <c r="K13" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>14</v>
+      <c r="K14" s="5" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>14</v>
+      <c r="K15" s="5" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>14</v>
+      <c r="K16" s="5" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>14</v>
+      <c r="K17" s="5" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>14</v>
+      <c r="K18" s="5" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>14</v>
+      <c r="K19" s="5" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>14</v>
+      <c r="K20" s="5" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>14</v>
+      <c r="K21" s="5" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>14</v>
+      <c r="K22" s="5" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>14</v>
+      <c r="K23" s="5" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>14</v>
+      <c r="K24" s="5" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>14</v>
+      <c r="K25" s="5" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>14</v>
+      <c r="K26" s="5" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>14</v>
+      <c r="K27" s="5" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>14</v>
+      <c r="K28" s="5" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>14</v>
+      <c r="K29" s="5" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>14</v>
+      <c r="K30" s="5" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>14</v>
+      <c r="K31" s="5" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{D259BF68-2D8B-4C71-BC8F-BC4FF327A565}"/>
+    <hyperlink ref="K3:K31" r:id="rId2" display="william@go.com" xr:uid="{479A68C4-FF25-416D-B03C-404EEA66EC8A}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{C88FBBE7-AB5E-4A24-85E3-CF93DCEA2F85}"/>
+    <hyperlink ref="K4" r:id="rId4" xr:uid="{0BB6597F-0BD3-4487-9AB0-9A21BBB66990}"/>
+    <hyperlink ref="K5" r:id="rId5" xr:uid="{E7A26500-7B67-4FBC-B98E-3B9A34D8F306}"/>
+    <hyperlink ref="K6" r:id="rId6" xr:uid="{7D2002EC-131C-431C-BF22-EAAD94AD4DA9}"/>
+    <hyperlink ref="K7" r:id="rId7" xr:uid="{F4424B38-7253-42CD-93F4-F948043D206B}"/>
+    <hyperlink ref="K8" r:id="rId8" xr:uid="{9D25CA62-E426-40D0-B376-14CC3EB3A989}"/>
+    <hyperlink ref="K9" r:id="rId9" xr:uid="{88A14E39-9277-42A8-9553-A1EA242DA45D}"/>
+    <hyperlink ref="K10" r:id="rId10" xr:uid="{C3B0908F-9895-4901-ADA0-2600A5C2701A}"/>
+    <hyperlink ref="K11" r:id="rId11" xr:uid="{249FD1D7-86E2-45B8-9DA8-EF9E3442E425}"/>
+    <hyperlink ref="K12" r:id="rId12" xr:uid="{5F7AE7AF-44BB-4BE8-A8B1-0BD0850223DE}"/>
+    <hyperlink ref="K13" r:id="rId13" xr:uid="{74A81955-9480-4B4C-9205-1447ED1705E1}"/>
+    <hyperlink ref="K14" r:id="rId14" xr:uid="{9245F107-E1E8-4116-A569-E683769569BD}"/>
+    <hyperlink ref="K15" r:id="rId15" xr:uid="{FCF1001B-8EA0-4687-8A27-29A75FFD61E1}"/>
+    <hyperlink ref="K16" r:id="rId16" xr:uid="{CC35901A-3528-4FAC-A704-4727A912196C}"/>
+    <hyperlink ref="K17" r:id="rId17" xr:uid="{95800642-761D-4B0A-BD42-AF24F7FAE43C}"/>
+    <hyperlink ref="K18" r:id="rId18" xr:uid="{C5769CDA-E63C-42F5-9CE4-853647C6A62E}"/>
+    <hyperlink ref="K19" r:id="rId19" xr:uid="{5FA2997C-F7CD-4AE1-A703-58510CBAAB30}"/>
+    <hyperlink ref="K20" r:id="rId20" xr:uid="{1E9BA6D2-BE21-4AD0-8015-3FB2DE5B7E2B}"/>
+    <hyperlink ref="K21" r:id="rId21" xr:uid="{EF5279FE-B2AE-438C-B27F-48F52E4DB158}"/>
+    <hyperlink ref="K24" r:id="rId22" xr:uid="{562ED9C8-C65B-4CA0-9F79-3A7F5DD6CA74}"/>
+    <hyperlink ref="K25" r:id="rId23" xr:uid="{89CC9128-3867-479E-A750-A03C65CCDB37}"/>
+    <hyperlink ref="K26" r:id="rId24" xr:uid="{FBFB378D-D559-4246-965B-C183451486B7}"/>
+    <hyperlink ref="K27" r:id="rId25" xr:uid="{38967F32-2811-419B-BD68-7CA50EA759ED}"/>
+    <hyperlink ref="K28" r:id="rId26" xr:uid="{84857769-3E44-43B5-B397-63412F293407}"/>
+    <hyperlink ref="K29" r:id="rId27" xr:uid="{697BAB00-C624-44EE-A409-6A00473D2335}"/>
+    <hyperlink ref="K30" r:id="rId28" xr:uid="{0DC01CE1-648C-4CD0-9238-1A4B11364065}"/>
+    <hyperlink ref="K31" r:id="rId29" xr:uid="{8C3A3CF0-42F7-4B36-96E9-A6F672712A9A}"/>
+    <hyperlink ref="K22" r:id="rId30" xr:uid="{204EABB1-F7BD-456C-94EB-8D71850EB8ED}"/>
+    <hyperlink ref="K23" r:id="rId31" xr:uid="{78F13271-AA53-4380-81D1-E1300C4F854D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -14490,21 +14618,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -14518,7 +14646,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -14532,7 +14660,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -14546,7 +14674,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -14560,7 +14688,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -14574,7 +14702,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -14588,7 +14716,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -14602,7 +14730,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -14616,7 +14744,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -14630,7 +14758,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -14644,7 +14772,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
@@ -14658,7 +14786,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B13" s="2">
         <v>5</v>
@@ -14672,7 +14800,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -14686,7 +14814,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -14700,7 +14828,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -14714,7 +14842,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
@@ -14728,7 +14856,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -14742,7 +14870,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -14756,7 +14884,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -14770,7 +14898,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -14784,7 +14912,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -14798,7 +14926,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -14812,7 +14940,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -14826,13 +14954,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D25" s="2">
         <v>4</v>
@@ -14840,7 +14968,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -14854,7 +14982,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
@@ -14868,7 +14996,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
@@ -14882,7 +15010,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B29" s="2">
         <v>4</v>
@@ -14896,7 +15024,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B30" s="2">
         <v>5</v>
@@ -14910,7 +15038,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B31" s="2">
         <v>6</v>
@@ -14924,7 +15052,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B32" s="2">
         <v>7</v>
@@ -14938,7 +15066,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -14952,7 +15080,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -14966,7 +15094,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
@@ -14980,7 +15108,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B36" s="2">
         <v>4</v>
@@ -14994,7 +15122,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B37" s="2">
         <v>5</v>
@@ -15008,7 +15136,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -15022,7 +15150,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -15036,7 +15164,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -15050,7 +15178,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -15064,7 +15192,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -15078,7 +15206,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -15092,7 +15220,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B44" s="2">
         <v>3</v>
@@ -15106,7 +15234,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B45" s="2">
         <v>4</v>
@@ -15120,7 +15248,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -15134,7 +15262,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B47" s="2">
         <v>2</v>
@@ -15148,7 +15276,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B48" s="2">
         <v>3</v>
@@ -15162,7 +15290,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -15176,7 +15304,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B50" s="2">
         <v>2</v>
@@ -15190,7 +15318,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B51" s="2">
         <v>3</v>
@@ -15204,7 +15332,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B52" s="2">
         <v>4</v>
@@ -15218,7 +15346,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B53" s="2">
         <v>5</v>
@@ -15232,7 +15360,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -15246,7 +15374,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B55" s="2">
         <v>2</v>
@@ -15260,7 +15388,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B56" s="2">
         <v>3</v>
@@ -15274,7 +15402,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B57" s="2">
         <v>4</v>
@@ -15288,7 +15416,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B58" s="2">
         <v>5</v>
@@ -15302,7 +15430,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B59" s="2">
         <v>6</v>
@@ -15316,7 +15444,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B60" s="2">
         <v>7</v>
@@ -15330,7 +15458,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B61" s="2">
         <v>8</v>
@@ -15344,7 +15472,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B62" s="2">
         <v>9</v>
@@ -15358,7 +15486,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B63" s="2">
         <v>10</v>
@@ -15372,7 +15500,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -15386,13 +15514,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D65" s="2">
         <v>9</v>
@@ -15400,13 +15528,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B66" s="2">
         <v>3</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D66" s="2">
         <v>5</v>
@@ -15414,13 +15542,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D67" s="2">
         <v>3</v>
@@ -15428,13 +15556,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D68" s="2">
         <v>10</v>
@@ -15442,13 +15570,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D69" s="2">
         <v>5</v>
@@ -15456,13 +15584,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D70" s="2">
         <v>8</v>
@@ -15470,13 +15598,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B71" s="2">
         <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D71" s="2">
         <v>10</v>
@@ -15484,13 +15612,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B72" s="2">
         <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D72" s="2">
         <v>3</v>
@@ -15498,13 +15626,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B73" s="2">
         <v>3</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D73" s="2">
         <v>5</v>
@@ -15512,13 +15640,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B74" s="2">
         <v>4</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D74" s="2">
         <v>2</v>
@@ -15526,13 +15654,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B75" s="2">
         <v>5</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D75" s="2">
         <v>10</v>
@@ -15540,13 +15668,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B76" s="2">
         <v>6</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D76" s="2">
         <v>6</v>
@@ -15554,13 +15682,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D77" s="2">
         <v>2</v>
@@ -15568,7 +15696,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -15582,7 +15710,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B79" s="2">
         <v>2</v>
@@ -15596,7 +15724,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B80" s="2">
         <v>3</v>
@@ -15610,7 +15738,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B81" s="2">
         <v>4</v>
@@ -15624,7 +15752,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B82" s="2">
         <v>5</v>
@@ -15699,7 +15827,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -15740,7 +15868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69916872-AAC6-416F-8C41-4B26E1463A57}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -16701,7 +16829,7 @@
         <v>43</v>
       </c>
       <c r="M23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17764,7 +17892,7 @@
         <v>15</v>
       </c>
       <c r="L49" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M49" t="s">
         <v>43</v>
@@ -17887,7 +18015,7 @@
         <v>13</v>
       </c>
       <c r="L52" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M52" t="s">
         <v>43</v>
@@ -18071,7 +18199,7 @@
         <v>1040</v>
       </c>
       <c r="E57" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -18112,7 +18240,7 @@
         <v>1040</v>
       </c>
       <c r="E58" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -18354,21 +18482,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5F8842-EE74-426E-8393-3791E6D31C67}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="256" width="13.5703125" style="2" customWidth="1"/>
-    <col min="257" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="255" width="13.5703125" style="2" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>167</v>
       </c>
@@ -18378,134 +18506,104 @@
       <c r="C1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1010</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1020</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1030</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1040</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1050</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1060</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1070</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1080</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1090</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18533,16 +18631,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -18550,7 +18648,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2">
         <v>7</v>
@@ -18564,7 +18662,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2">
         <v>7</v>
@@ -18578,7 +18676,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="2">
         <v>7</v>
@@ -18592,7 +18690,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
@@ -18606,7 +18704,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2">
         <v>7</v>
@@ -18620,7 +18718,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="2">
         <v>7</v>
@@ -18634,7 +18732,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -18648,7 +18746,7 @@
         <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
@@ -18662,7 +18760,7 @@
         <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="2">
         <v>7</v>
@@ -18695,13 +18793,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -18827,10 +18925,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -18838,7 +18936,7 @@
         <v>1010</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -18862,7 +18960,7 @@
         <v>1040</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -18902,7 +19000,7 @@
         <v>1090</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -18930,13 +19028,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -19060,28 +19158,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>169</v>
@@ -19092,16 +19190,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F2" s="2">
         <v>38</v>
@@ -19121,16 +19219,16 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F3" s="2">
         <v>12</v>
@@ -19150,16 +19248,16 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" s="2">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F4" s="2">
         <v>15</v>
@@ -19179,16 +19277,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" s="2">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F5" s="2">
         <v>12</v>
@@ -19208,16 +19306,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="2">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F6" s="2">
         <v>30</v>
@@ -19237,16 +19335,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F7" s="2">
         <v>28</v>
@@ -19266,16 +19364,16 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="2">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F8" s="2">
         <v>15</v>
@@ -19295,16 +19393,16 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C9" s="2">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F9" s="2">
         <v>12</v>
@@ -19324,16 +19422,16 @@
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="2">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F10" s="2">
         <v>14</v>
@@ -19353,16 +19451,16 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F11" s="2">
         <v>15</v>
@@ -19382,16 +19480,16 @@
         <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" s="2">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F12" s="2">
         <v>15</v>
@@ -19411,16 +19509,16 @@
         <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C13" s="2">
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F13" s="2">
         <v>12</v>
@@ -19440,16 +19538,16 @@
         <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C14" s="2">
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F14" s="2">
         <v>12</v>
@@ -19469,16 +19567,16 @@
         <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" s="2">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F15" s="2">
         <v>13</v>
@@ -19498,16 +19596,16 @@
         <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C16" s="2">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F16" s="2">
         <v>15</v>
@@ -19527,16 +19625,16 @@
         <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C17" s="2">
         <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F17" s="2">
         <v>14</v>
@@ -19556,16 +19654,16 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="2">
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F18" s="2">
         <v>15</v>
@@ -19585,16 +19683,16 @@
         <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" s="2">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F19" s="2">
         <v>28</v>
@@ -19614,16 +19712,16 @@
         <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C20" s="2">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F20" s="2">
         <v>11</v>
@@ -19643,16 +19741,16 @@
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F21" s="2">
         <v>15</v>
@@ -19672,16 +19770,16 @@
         <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C22" s="2">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F22" s="2">
         <v>15</v>
@@ -19701,16 +19799,16 @@
         <v>84</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C23" s="2">
         <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F23" s="2">
         <v>15</v>
@@ -19730,16 +19828,16 @@
         <v>86</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C24" s="2">
         <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F24" s="2">
         <v>15</v>
@@ -19759,16 +19857,16 @@
         <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C25" s="2">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F25" s="2">
         <v>28</v>
@@ -19788,16 +19886,16 @@
         <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2">
         <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F26" s="2">
         <v>13</v>
@@ -19817,16 +19915,16 @@
         <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2">
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F27" s="2">
         <v>15</v>
@@ -19846,16 +19944,16 @@
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C28" s="2">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F28" s="2">
         <v>15</v>
@@ -19875,16 +19973,16 @@
         <v>96</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C29" s="2">
         <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F29" s="2">
         <v>15</v>
@@ -19904,16 +20002,16 @@
         <v>98</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C30" s="2">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F30" s="2">
         <v>15</v>
@@ -19933,16 +20031,16 @@
         <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C31" s="2">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F31" s="2">
         <v>12</v>
@@ -19962,16 +20060,16 @@
         <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C32" s="2">
         <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F32" s="2">
         <v>15</v>
@@ -19991,16 +20089,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F33" s="2">
         <v>15</v>
@@ -20020,16 +20118,16 @@
         <v>106</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2">
         <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F34" s="2">
         <v>15</v>
@@ -20049,16 +20147,16 @@
         <v>108</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F35" s="2">
         <v>27</v>
@@ -20078,16 +20176,16 @@
         <v>111</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2">
         <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F36" s="2">
         <v>56</v>
@@ -20107,16 +20205,16 @@
         <v>113</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" s="2">
         <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F37" s="2">
         <v>13</v>
@@ -20136,16 +20234,16 @@
         <v>115</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C38" s="2">
         <v>20</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F38" s="2">
         <v>42</v>
@@ -20165,16 +20263,16 @@
         <v>117</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C39" s="2">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F39" s="2">
         <v>60</v>
@@ -20194,16 +20292,16 @@
         <v>119</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F40" s="2">
         <v>48</v>
@@ -20223,16 +20321,16 @@
         <v>121</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F41" s="2">
         <v>36</v>
@@ -20252,16 +20350,16 @@
         <v>123</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C42" s="2">
         <v>20</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -20281,16 +20379,16 @@
         <v>125</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C43" s="2">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -20310,16 +20408,16 @@
         <v>127</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C44" s="2">
         <v>20</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -20339,16 +20437,16 @@
         <v>129</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C45" s="2">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
@@ -20368,16 +20466,16 @@
         <v>131</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C46" s="2">
         <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F46" s="2">
         <v>3</v>
@@ -20397,16 +20495,16 @@
         <v>133</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C47" s="2">
         <v>20</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F47" s="2">
         <v>2</v>
@@ -20426,16 +20524,16 @@
         <v>135</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C48" s="2">
         <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
@@ -20455,16 +20553,16 @@
         <v>137</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C49" s="2">
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
@@ -20484,16 +20582,16 @@
         <v>139</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C50" s="2">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
@@ -20513,16 +20611,16 @@
         <v>141</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C51" s="2">
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
@@ -20542,16 +20640,16 @@
         <v>143</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C52" s="2">
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
@@ -20571,16 +20669,16 @@
         <v>145</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C53" s="2">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -20600,16 +20698,16 @@
         <v>147</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C54" s="2">
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F54" s="2">
         <v>8</v>
@@ -20629,16 +20727,16 @@
         <v>149</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C55" s="2">
         <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F55" s="2">
         <v>12</v>
@@ -20658,16 +20756,16 @@
         <v>151</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C56" s="2">
         <v>20</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F56" s="2">
         <v>3</v>
@@ -20687,16 +20785,16 @@
         <v>153</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C57" s="2">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F57" s="2">
         <v>1232</v>
@@ -20716,16 +20814,16 @@
         <v>155</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C58" s="2">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F58" s="2">
         <v>1344</v>
@@ -20745,16 +20843,16 @@
         <v>157</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C59" s="2">
         <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F59" s="2">
         <v>13</v>
@@ -20774,16 +20872,16 @@
         <v>159</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C60" s="2">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F60" s="2">
         <v>42</v>
@@ -20803,16 +20901,16 @@
         <v>161</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C61" s="2">
         <v>11</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F61" s="2">
         <v>11</v>
@@ -20832,16 +20930,16 @@
         <v>163</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C62" s="2">
         <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F62" s="2">
         <v>15</v>
@@ -20861,16 +20959,16 @@
         <v>165</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C63" s="2">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F63" s="2">
         <v>7</v>

--- a/asset/Technology-Stock-Data.xlsx
+++ b/asset/Technology-Stock-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\My Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A7F956-D382-4C6D-A5BE-E7C15980B73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F52B4-EC0E-4F83-A578-4442F6154447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="14" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="8" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
   </bookViews>
   <sheets>
     <sheet name="systemparameter" sheetId="1" r:id="rId1"/>
@@ -13465,7 +13465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A43395-5AED-4717-8057-5433ACD35E7E}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -19147,8 +19147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09049A71-4ED6-4230-B21F-B667F9DFAB67}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:IV52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19167,13 +19167,13 @@
         <v>192</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>197</v>
@@ -19195,14 +19195,14 @@
       <c r="C2" s="2">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F2" s="2">
-        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>43</v>
@@ -19224,14 +19224,14 @@
       <c r="C3" s="2">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F3" s="2">
-        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>43</v>
@@ -19253,14 +19253,14 @@
       <c r="C4" s="2">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F4" s="2">
-        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>43</v>
@@ -19282,14 +19282,14 @@
       <c r="C5" s="2">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F5" s="2">
-        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>43</v>
@@ -19311,14 +19311,14 @@
       <c r="C6" s="2">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F6" s="2">
-        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>43</v>
@@ -19340,14 +19340,14 @@
       <c r="C7" s="2">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F7" s="2">
-        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>43</v>
@@ -19369,14 +19369,14 @@
       <c r="C8" s="2">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F8" s="2">
-        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>43</v>
@@ -19398,14 +19398,14 @@
       <c r="C9" s="2">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F9" s="2">
-        <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>43</v>
@@ -19427,14 +19427,14 @@
       <c r="C10" s="2">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="2">
-        <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>43</v>
@@ -19456,14 +19456,14 @@
       <c r="C11" s="2">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="2">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F11" s="2">
-        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>43</v>
@@ -19485,14 +19485,14 @@
       <c r="C12" s="2">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="2">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F12" s="2">
-        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>43</v>
@@ -19514,14 +19514,14 @@
       <c r="C13" s="2">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F13" s="2">
-        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>43</v>
@@ -19543,14 +19543,14 @@
       <c r="C14" s="2">
         <v>16</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F14" s="2">
-        <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>43</v>
@@ -19572,14 +19572,14 @@
       <c r="C15" s="2">
         <v>19</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F15" s="2">
-        <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>43</v>
@@ -19601,14 +19601,14 @@
       <c r="C16" s="2">
         <v>12</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F16" s="2">
-        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>43</v>
@@ -19630,14 +19630,14 @@
       <c r="C17" s="2">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F17" s="2">
-        <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>43</v>
@@ -19659,14 +19659,14 @@
       <c r="C18" s="2">
         <v>11</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="2">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F18" s="2">
-        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>43</v>
@@ -19688,14 +19688,14 @@
       <c r="C19" s="2">
         <v>13</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="2">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F19" s="2">
-        <v>28</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>43</v>
@@ -19717,14 +19717,14 @@
       <c r="C20" s="2">
         <v>17</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="2">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F20" s="2">
-        <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>43</v>
@@ -19746,14 +19746,14 @@
       <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="2">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F21" s="2">
-        <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>43</v>
@@ -19775,14 +19775,14 @@
       <c r="C22" s="2">
         <v>14</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="2">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F22" s="2">
-        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>43</v>
@@ -19804,14 +19804,14 @@
       <c r="C23" s="2">
         <v>11</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="2">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F23" s="2">
-        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>43</v>
@@ -19833,14 +19833,14 @@
       <c r="C24" s="2">
         <v>19</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="2">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F24" s="2">
-        <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>43</v>
@@ -19862,14 +19862,14 @@
       <c r="C25" s="2">
         <v>14</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="2">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F25" s="2">
-        <v>28</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>43</v>
@@ -19891,14 +19891,14 @@
       <c r="C26" s="2">
         <v>19</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="2">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F26" s="2">
-        <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>43</v>
@@ -19920,14 +19920,14 @@
       <c r="C27" s="2">
         <v>11</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="2">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F27" s="2">
-        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>43</v>
@@ -19949,14 +19949,14 @@
       <c r="C28" s="2">
         <v>17</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="2">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F28" s="2">
-        <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>43</v>
@@ -19978,14 +19978,14 @@
       <c r="C29" s="2">
         <v>11</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="2">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F29" s="2">
-        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>43</v>
@@ -20007,14 +20007,14 @@
       <c r="C30" s="2">
         <v>13</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="2">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F30" s="2">
-        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>43</v>
@@ -20036,14 +20036,14 @@
       <c r="C31" s="2">
         <v>13</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="2">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F31" s="2">
-        <v>12</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>43</v>
@@ -20065,14 +20065,14 @@
       <c r="C32" s="2">
         <v>18</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="2">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F32" s="2">
-        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>43</v>
@@ -20094,14 +20094,14 @@
       <c r="C33" s="2">
         <v>17</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="2">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F33" s="2">
-        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>43</v>
@@ -20123,14 +20123,14 @@
       <c r="C34" s="2">
         <v>19</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="2">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F34" s="2">
-        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>43</v>
@@ -20152,14 +20152,14 @@
       <c r="C35" s="2">
         <v>17</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="2">
+        <v>27</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F35" s="2">
-        <v>27</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>43</v>
@@ -20181,14 +20181,14 @@
       <c r="C36" s="2">
         <v>19</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="2">
+        <v>56</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F36" s="2">
-        <v>56</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>43</v>
@@ -20210,14 +20210,14 @@
       <c r="C37" s="2">
         <v>16</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="2">
+        <v>13</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F37" s="2">
-        <v>13</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>43</v>
@@ -20239,14 +20239,14 @@
       <c r="C38" s="2">
         <v>20</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="2">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F38" s="2">
-        <v>42</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>43</v>
@@ -20268,14 +20268,14 @@
       <c r="C39" s="2">
         <v>15</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="2">
+        <v>60</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F39" s="2">
-        <v>60</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>43</v>
@@ -20297,14 +20297,14 @@
       <c r="C40" s="2">
         <v>12</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="2">
+        <v>48</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F40" s="2">
-        <v>48</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>43</v>
@@ -20326,14 +20326,14 @@
       <c r="C41" s="2">
         <v>12</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="2">
+        <v>36</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F41" s="2">
-        <v>36</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>43</v>
@@ -20355,14 +20355,14 @@
       <c r="C42" s="2">
         <v>20</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>43</v>
@@ -20384,14 +20384,14 @@
       <c r="C43" s="2">
         <v>17</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>43</v>
@@ -20413,14 +20413,14 @@
       <c r="C44" s="2">
         <v>20</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>43</v>
@@ -20442,14 +20442,14 @@
       <c r="C45" s="2">
         <v>18</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>43</v>
@@ -20471,14 +20471,14 @@
       <c r="C46" s="2">
         <v>11</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F46" s="2">
-        <v>3</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>43</v>
@@ -20500,14 +20500,14 @@
       <c r="C47" s="2">
         <v>20</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F47" s="2">
-        <v>2</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>43</v>
@@ -20529,14 +20529,14 @@
       <c r="C48" s="2">
         <v>18</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>43</v>
@@ -20558,14 +20558,14 @@
       <c r="C49" s="2">
         <v>16</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>43</v>
@@ -20587,14 +20587,14 @@
       <c r="C50" s="2">
         <v>13</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>43</v>
@@ -20616,14 +20616,14 @@
       <c r="C51" s="2">
         <v>14</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>43</v>
@@ -20645,14 +20645,14 @@
       <c r="C52" s="2">
         <v>16</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>43</v>
@@ -20674,14 +20674,14 @@
       <c r="C53" s="2">
         <v>12</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>43</v>
@@ -20703,14 +20703,14 @@
       <c r="C54" s="2">
         <v>14</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="2">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F54" s="2">
-        <v>8</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>43</v>
@@ -20732,14 +20732,14 @@
       <c r="C55" s="2">
         <v>18</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="2">
+        <v>12</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F55" s="2">
-        <v>12</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>43</v>
@@ -20761,14 +20761,14 @@
       <c r="C56" s="2">
         <v>20</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="2">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F56" s="2">
-        <v>3</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>43</v>
@@ -20790,14 +20790,14 @@
       <c r="C57" s="2">
         <v>16</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="2">
+        <v>1232</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1232</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>43</v>
@@ -20819,14 +20819,14 @@
       <c r="C58" s="2">
         <v>12</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="2">
+        <v>1344</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F58" s="2">
-        <v>1344</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>43</v>
@@ -20848,14 +20848,14 @@
       <c r="C59" s="2">
         <v>20</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="2">
+        <v>13</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F59" s="2">
-        <v>13</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>43</v>
@@ -20877,14 +20877,14 @@
       <c r="C60" s="2">
         <v>14</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="2">
+        <v>42</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F60" s="2">
-        <v>42</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>43</v>
@@ -20906,14 +20906,14 @@
       <c r="C61" s="2">
         <v>11</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="2">
+        <v>11</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F61" s="2">
-        <v>11</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>43</v>
@@ -20935,14 +20935,14 @@
       <c r="C62" s="2">
         <v>20</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="2">
+        <v>15</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F62" s="2">
-        <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>43</v>
@@ -20964,14 +20964,14 @@
       <c r="C63" s="2">
         <v>13</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="2">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F63" s="2">
-        <v>7</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>43</v>

--- a/asset/Technology-Stock-Data.xlsx
+++ b/asset/Technology-Stock-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\My Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F52B4-EC0E-4F83-A578-4442F6154447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944F9214-7304-4919-8C5F-B9A606814102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="8" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
   </bookViews>
@@ -19148,7 +19148,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19167,13 +19167,13 @@
         <v>192</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>197</v>
@@ -19195,14 +19195,14 @@
       <c r="C2" s="2">
         <v>20</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="2">
         <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>43</v>
@@ -19224,14 +19224,14 @@
       <c r="C3" s="2">
         <v>14</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="2">
         <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>43</v>
@@ -19253,14 +19253,14 @@
       <c r="C4" s="2">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="2">
         <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>43</v>
@@ -19282,14 +19282,14 @@
       <c r="C5" s="2">
         <v>19</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="2">
         <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>43</v>
@@ -19311,14 +19311,14 @@
       <c r="C6" s="2">
         <v>17</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="2">
         <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>43</v>
@@ -19340,14 +19340,14 @@
       <c r="C7" s="2">
         <v>18</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="2">
         <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>43</v>
@@ -19369,14 +19369,14 @@
       <c r="C8" s="2">
         <v>17</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="2">
         <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>43</v>
@@ -19398,14 +19398,14 @@
       <c r="C9" s="2">
         <v>20</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="2">
         <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>43</v>
@@ -19427,14 +19427,14 @@
       <c r="C10" s="2">
         <v>15</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="2">
         <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>43</v>
@@ -19456,14 +19456,14 @@
       <c r="C11" s="2">
         <v>20</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="2">
         <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>43</v>
@@ -19485,14 +19485,14 @@
       <c r="C12" s="2">
         <v>14</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="2">
         <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>43</v>
@@ -19514,14 +19514,14 @@
       <c r="C13" s="2">
         <v>14</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="2">
         <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>43</v>
@@ -19543,14 +19543,14 @@
       <c r="C14" s="2">
         <v>16</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="2">
         <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>43</v>
@@ -19572,14 +19572,14 @@
       <c r="C15" s="2">
         <v>19</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="2">
         <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>43</v>
@@ -19601,14 +19601,14 @@
       <c r="C16" s="2">
         <v>12</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="2">
         <v>15</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>43</v>
@@ -19630,14 +19630,14 @@
       <c r="C17" s="2">
         <v>11</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="2">
         <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>43</v>
@@ -19659,14 +19659,14 @@
       <c r="C18" s="2">
         <v>11</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="2">
         <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>43</v>
@@ -19688,14 +19688,14 @@
       <c r="C19" s="2">
         <v>13</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="2">
         <v>28</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>43</v>
@@ -19717,14 +19717,14 @@
       <c r="C20" s="2">
         <v>17</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="2">
         <v>11</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>43</v>
@@ -19746,14 +19746,14 @@
       <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="2">
         <v>15</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>43</v>
@@ -19775,14 +19775,14 @@
       <c r="C22" s="2">
         <v>14</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="2">
         <v>15</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>43</v>
@@ -19804,14 +19804,14 @@
       <c r="C23" s="2">
         <v>11</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="2">
         <v>15</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>43</v>
@@ -19833,14 +19833,14 @@
       <c r="C24" s="2">
         <v>19</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" s="2">
         <v>15</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>43</v>
@@ -19862,14 +19862,14 @@
       <c r="C25" s="2">
         <v>14</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="2">
         <v>28</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>43</v>
@@ -19891,14 +19891,14 @@
       <c r="C26" s="2">
         <v>19</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="2">
         <v>13</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>43</v>
@@ -19920,14 +19920,14 @@
       <c r="C27" s="2">
         <v>11</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="2">
         <v>15</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>43</v>
@@ -19949,14 +19949,14 @@
       <c r="C28" s="2">
         <v>17</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="2">
         <v>15</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>43</v>
@@ -19978,14 +19978,14 @@
       <c r="C29" s="2">
         <v>11</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="2">
         <v>15</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>43</v>
@@ -20007,14 +20007,14 @@
       <c r="C30" s="2">
         <v>13</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="2">
         <v>15</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>43</v>
@@ -20036,14 +20036,14 @@
       <c r="C31" s="2">
         <v>13</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="2">
         <v>12</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>43</v>
@@ -20065,14 +20065,14 @@
       <c r="C32" s="2">
         <v>18</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="2">
         <v>15</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>43</v>
@@ -20094,14 +20094,14 @@
       <c r="C33" s="2">
         <v>17</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="2">
         <v>15</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>43</v>
@@ -20123,14 +20123,14 @@
       <c r="C34" s="2">
         <v>19</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="2">
         <v>15</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>43</v>
@@ -20152,14 +20152,14 @@
       <c r="C35" s="2">
         <v>17</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" s="2">
         <v>27</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>43</v>
@@ -20181,14 +20181,14 @@
       <c r="C36" s="2">
         <v>19</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="2">
         <v>56</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>43</v>
@@ -20210,14 +20210,14 @@
       <c r="C37" s="2">
         <v>16</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="2">
         <v>13</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>43</v>
@@ -20239,14 +20239,14 @@
       <c r="C38" s="2">
         <v>20</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="2">
         <v>42</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>43</v>
@@ -20268,14 +20268,14 @@
       <c r="C39" s="2">
         <v>15</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="2">
         <v>60</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>43</v>
@@ -20297,14 +20297,14 @@
       <c r="C40" s="2">
         <v>12</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="2">
         <v>48</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>43</v>
@@ -20326,14 +20326,14 @@
       <c r="C41" s="2">
         <v>12</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F41" s="2">
         <v>36</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>43</v>
@@ -20355,14 +20355,14 @@
       <c r="C42" s="2">
         <v>20</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" s="2">
         <v>0</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>43</v>
@@ -20384,14 +20384,14 @@
       <c r="C43" s="2">
         <v>17</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="2">
         <v>0</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>43</v>
@@ -20413,14 +20413,14 @@
       <c r="C44" s="2">
         <v>20</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" s="2">
         <v>0</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>43</v>
@@ -20442,14 +20442,14 @@
       <c r="C45" s="2">
         <v>18</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="2">
         <v>0</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>43</v>
@@ -20471,14 +20471,14 @@
       <c r="C46" s="2">
         <v>11</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" s="2">
         <v>3</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>43</v>
@@ -20500,14 +20500,14 @@
       <c r="C47" s="2">
         <v>20</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="2">
         <v>2</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>43</v>
@@ -20529,14 +20529,14 @@
       <c r="C48" s="2">
         <v>18</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48" s="2">
         <v>0</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>43</v>
@@ -20558,14 +20558,14 @@
       <c r="C49" s="2">
         <v>16</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="2">
         <v>0</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>43</v>
@@ -20587,14 +20587,14 @@
       <c r="C50" s="2">
         <v>13</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="2">
         <v>0</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>43</v>
@@ -20616,14 +20616,14 @@
       <c r="C51" s="2">
         <v>14</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="2">
         <v>0</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>43</v>
@@ -20645,14 +20645,14 @@
       <c r="C52" s="2">
         <v>16</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="2">
         <v>0</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>43</v>
@@ -20674,14 +20674,14 @@
       <c r="C53" s="2">
         <v>12</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="2">
         <v>0</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>43</v>
@@ -20703,14 +20703,14 @@
       <c r="C54" s="2">
         <v>14</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="2">
         <v>8</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>43</v>
@@ -20732,14 +20732,14 @@
       <c r="C55" s="2">
         <v>18</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="2">
         <v>12</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>43</v>
@@ -20761,14 +20761,14 @@
       <c r="C56" s="2">
         <v>20</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" s="2">
         <v>3</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>43</v>
@@ -20790,14 +20790,14 @@
       <c r="C57" s="2">
         <v>16</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="2">
         <v>1232</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>43</v>
@@ -20819,14 +20819,14 @@
       <c r="C58" s="2">
         <v>12</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="2">
         <v>1344</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>43</v>
@@ -20848,14 +20848,14 @@
       <c r="C59" s="2">
         <v>20</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="2">
         <v>13</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>43</v>
@@ -20877,14 +20877,14 @@
       <c r="C60" s="2">
         <v>14</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="2">
         <v>42</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>43</v>
@@ -20906,14 +20906,14 @@
       <c r="C61" s="2">
         <v>11</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F61" s="2">
         <v>11</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>43</v>
@@ -20935,14 +20935,14 @@
       <c r="C62" s="2">
         <v>20</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" s="2">
         <v>15</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>43</v>
@@ -20964,14 +20964,14 @@
       <c r="C63" s="2">
         <v>13</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" s="2">
         <v>7</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>43</v>

--- a/asset/Technology-Stock-Data.xlsx
+++ b/asset/Technology-Stock-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\My Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944F9214-7304-4919-8C5F-B9A606814102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AFCF49-D3E3-43BF-B29A-873AE6794AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="8" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="10" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
   </bookViews>
   <sheets>
     <sheet name="systemparameter" sheetId="1" r:id="rId1"/>
@@ -2332,7 +2332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2340,11 +2340,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2378,21 +2373,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -7559,7 +7551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333FB69C-B064-4806-9C28-11EA59CB348A}">
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -13541,7 +13533,7 @@
       <c r="J2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>731</v>
       </c>
     </row>
@@ -13576,7 +13568,7 @@
       <c r="J3" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>732</v>
       </c>
     </row>
@@ -13611,7 +13603,7 @@
       <c r="J4" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>733</v>
       </c>
     </row>
@@ -13646,7 +13638,7 @@
       <c r="J5" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>734</v>
       </c>
     </row>
@@ -13681,7 +13673,7 @@
       <c r="J6" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>735</v>
       </c>
     </row>
@@ -13716,7 +13708,7 @@
       <c r="J7" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>736</v>
       </c>
     </row>
@@ -13751,7 +13743,7 @@
       <c r="J8" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>737</v>
       </c>
     </row>
@@ -13786,7 +13778,7 @@
       <c r="J9" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>738</v>
       </c>
     </row>
@@ -13821,7 +13813,7 @@
       <c r="J10" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>739</v>
       </c>
     </row>
@@ -13856,7 +13848,7 @@
       <c r="J11" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>740</v>
       </c>
     </row>
@@ -13891,7 +13883,7 @@
       <c r="J12" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>741</v>
       </c>
     </row>
@@ -13926,7 +13918,7 @@
       <c r="J13" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>742</v>
       </c>
     </row>
@@ -13961,7 +13953,7 @@
       <c r="J14" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>743</v>
       </c>
     </row>
@@ -13996,7 +13988,7 @@
       <c r="J15" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>744</v>
       </c>
     </row>
@@ -14031,7 +14023,7 @@
       <c r="J16" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>745</v>
       </c>
     </row>
@@ -14066,7 +14058,7 @@
       <c r="J17" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>746</v>
       </c>
     </row>
@@ -14101,7 +14093,7 @@
       <c r="J18" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>731</v>
       </c>
     </row>
@@ -14136,7 +14128,7 @@
       <c r="J19" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>747</v>
       </c>
     </row>
@@ -14171,7 +14163,7 @@
       <c r="J20" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>748</v>
       </c>
     </row>
@@ -14206,7 +14198,7 @@
       <c r="J21" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>749</v>
       </c>
     </row>
@@ -14241,7 +14233,7 @@
       <c r="J22" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="4" t="s">
         <v>750</v>
       </c>
     </row>
@@ -14276,7 +14268,7 @@
       <c r="J23" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>751</v>
       </c>
     </row>
@@ -14311,7 +14303,7 @@
       <c r="J24" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="4" t="s">
         <v>752</v>
       </c>
     </row>
@@ -14346,7 +14338,7 @@
       <c r="J25" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>753</v>
       </c>
     </row>
@@ -14381,7 +14373,7 @@
       <c r="J26" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="4" t="s">
         <v>754</v>
       </c>
     </row>
@@ -14416,7 +14408,7 @@
       <c r="J27" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>755</v>
       </c>
     </row>
@@ -14451,7 +14443,7 @@
       <c r="J28" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="4" t="s">
         <v>756</v>
       </c>
     </row>
@@ -14486,7 +14478,7 @@
       <c r="J29" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="4" t="s">
         <v>757</v>
       </c>
     </row>
@@ -14521,7 +14513,7 @@
       <c r="J30" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="4" t="s">
         <v>758</v>
       </c>
     </row>
@@ -14556,7 +14548,7 @@
       <c r="J31" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="4" t="s">
         <v>759</v>
       </c>
     </row>
@@ -15869,7 +15861,7 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18485,7 +18477,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18515,7 +18507,7 @@
         <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -18526,7 +18518,7 @@
         <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -18537,7 +18529,7 @@
         <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -18548,7 +18540,7 @@
         <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -18559,7 +18551,7 @@
         <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -18570,7 +18562,7 @@
         <v>175</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -18581,7 +18573,7 @@
         <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -18592,7 +18584,7 @@
         <v>177</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -18602,8 +18594,8 @@
       <c r="B10" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>43</v>
+      <c r="C10" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -19147,8 +19139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09049A71-4ED6-4230-B21F-B667F9DFAB67}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20658,7 +20650,7 @@
         <v>43</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>43</v>
+        <v>730</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>43</v>

--- a/asset/Technology-Stock-Data.xlsx
+++ b/asset/Technology-Stock-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\My Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AFCF49-D3E3-43BF-B29A-873AE6794AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722AF6CC-FCC3-4BDE-B573-B402F047834B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="10" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
   </bookViews>
   <sheets>
     <sheet name="systemparameter" sheetId="1" r:id="rId1"/>
@@ -7551,7 +7551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333FB69C-B064-4806-9C28-11EA59CB348A}">
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -15860,8 +15860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69916872-AAC6-416F-8C41-4B26E1463A57}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17310,7 +17310,7 @@
         <v>4</v>
       </c>
       <c r="L35" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="M35" t="s">
         <v>43</v>

--- a/asset/Technology-Stock-Data.xlsx
+++ b/asset/Technology-Stock-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\My Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722AF6CC-FCC3-4BDE-B573-B402F047834B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D7A3F5-101C-41BF-B6BB-78B3B437A73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="10" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
   </bookViews>
   <sheets>
     <sheet name="systemparameter" sheetId="1" r:id="rId1"/>
@@ -7551,7 +7551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333FB69C-B064-4806-9C28-11EA59CB348A}">
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -15860,7 +15860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69916872-AAC6-416F-8C41-4B26E1463A57}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
@@ -18477,7 +18477,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18507,7 +18507,7 @@
         <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -18518,7 +18518,7 @@
         <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -18529,7 +18529,7 @@
         <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -18540,7 +18540,7 @@
         <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -18551,7 +18551,7 @@
         <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -18562,7 +18562,7 @@
         <v>175</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -18573,7 +18573,7 @@
         <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -18584,7 +18584,7 @@
         <v>177</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -18595,7 +18595,7 @@
         <v>721</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Technology-Stock-Data.xlsx
+++ b/asset/Technology-Stock-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\My Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D7A3F5-101C-41BF-B6BB-78B3B437A73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1756518-70CF-4003-AFE4-8A3E5C45C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="10" xr2:uid="{5AC8EB20-4DC1-4978-9B05-AB4A1BBE37B5}"/>
   </bookViews>
@@ -2354,12 +2354,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2375,7 +2381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2385,6 +2391,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -7551,8 +7560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333FB69C-B064-4806-9C28-11EA59CB348A}">
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7591,13 +7600,13 @@
         <v>110</v>
       </c>
       <c r="D2" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7611,13 +7620,13 @@
         <v>43</v>
       </c>
       <c r="D3" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7631,13 +7640,13 @@
         <v>43</v>
       </c>
       <c r="D4" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7651,13 +7660,13 @@
         <v>43</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7671,13 +7680,13 @@
         <v>43</v>
       </c>
       <c r="D6" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7691,13 +7700,13 @@
         <v>110</v>
       </c>
       <c r="D7" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -7711,13 +7720,13 @@
         <v>43</v>
       </c>
       <c r="D8" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -7731,13 +7740,13 @@
         <v>110</v>
       </c>
       <c r="D9" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -7751,13 +7760,13 @@
         <v>110</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7771,13 +7780,13 @@
         <v>43</v>
       </c>
       <c r="D11" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -7791,13 +7800,13 @@
         <v>43</v>
       </c>
       <c r="D12" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -7811,13 +7820,13 @@
         <v>110</v>
       </c>
       <c r="D13" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -7831,13 +7840,13 @@
         <v>110</v>
       </c>
       <c r="D14" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -7851,13 +7860,13 @@
         <v>110</v>
       </c>
       <c r="D15" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -7871,13 +7880,13 @@
         <v>110</v>
       </c>
       <c r="D16" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -7891,13 +7900,13 @@
         <v>110</v>
       </c>
       <c r="D17" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -7911,13 +7920,13 @@
         <v>110</v>
       </c>
       <c r="D18" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -7931,13 +7940,13 @@
         <v>110</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -7951,13 +7960,13 @@
         <v>110</v>
       </c>
       <c r="D20" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -7971,13 +7980,13 @@
         <v>110</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -7991,13 +8000,13 @@
         <v>110</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8011,13 +8020,13 @@
         <v>110</v>
       </c>
       <c r="D23" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -8031,13 +8040,13 @@
         <v>110</v>
       </c>
       <c r="D24" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -8051,13 +8060,13 @@
         <v>43</v>
       </c>
       <c r="D25" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -8071,13 +8080,13 @@
         <v>110</v>
       </c>
       <c r="D26" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -8091,13 +8100,13 @@
         <v>43</v>
       </c>
       <c r="D27" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -8111,13 +8120,13 @@
         <v>43</v>
       </c>
       <c r="D28" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F28" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -8131,13 +8140,13 @@
         <v>43</v>
       </c>
       <c r="D29" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F29" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -8151,13 +8160,13 @@
         <v>43</v>
       </c>
       <c r="D30" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F30" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -8171,13 +8180,13 @@
         <v>43</v>
       </c>
       <c r="D31" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F31" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -8191,13 +8200,13 @@
         <v>110</v>
       </c>
       <c r="D32" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F32" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -8211,13 +8220,13 @@
         <v>110</v>
       </c>
       <c r="D33" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F33" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -8231,13 +8240,13 @@
         <v>43</v>
       </c>
       <c r="D34" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -8251,13 +8260,13 @@
         <v>110</v>
       </c>
       <c r="D35" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -8271,13 +8280,13 @@
         <v>110</v>
       </c>
       <c r="D36" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F36" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -8291,13 +8300,13 @@
         <v>110</v>
       </c>
       <c r="D37" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F37" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -8311,13 +8320,13 @@
         <v>43</v>
       </c>
       <c r="D38" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -8331,13 +8340,13 @@
         <v>110</v>
       </c>
       <c r="D39" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -8351,13 +8360,13 @@
         <v>43</v>
       </c>
       <c r="D40" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -8371,13 +8380,13 @@
         <v>110</v>
       </c>
       <c r="D41" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -8391,13 +8400,13 @@
         <v>43</v>
       </c>
       <c r="D42" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -8411,13 +8420,13 @@
         <v>110</v>
       </c>
       <c r="D43" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -8431,13 +8440,13 @@
         <v>43</v>
       </c>
       <c r="D44" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -8451,13 +8460,13 @@
         <v>43</v>
       </c>
       <c r="D45" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E45" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -8471,13 +8480,13 @@
         <v>43</v>
       </c>
       <c r="D46" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E46" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -8491,13 +8500,13 @@
         <v>43</v>
       </c>
       <c r="D47" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E47" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -8511,13 +8520,13 @@
         <v>43</v>
       </c>
       <c r="D48" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E48" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -8531,13 +8540,13 @@
         <v>43</v>
       </c>
       <c r="D49" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E49" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -8551,13 +8560,13 @@
         <v>43</v>
       </c>
       <c r="D50" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E50" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -8571,13 +8580,13 @@
         <v>43</v>
       </c>
       <c r="D51" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E51" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -8591,13 +8600,13 @@
         <v>110</v>
       </c>
       <c r="D52" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E52" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -8611,13 +8620,13 @@
         <v>110</v>
       </c>
       <c r="D53" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E53" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -8631,13 +8640,13 @@
         <v>110</v>
       </c>
       <c r="D54" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E54" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -8651,13 +8660,13 @@
         <v>110</v>
       </c>
       <c r="D55" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E55" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F55" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -8671,253 +8680,253 @@
         <v>110</v>
       </c>
       <c r="D56" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E56" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F56" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="5">
         <v>1030</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D57" s="2">
-        <v>250</v>
-      </c>
-      <c r="E57" s="2">
-        <v>250</v>
+      <c r="D57" s="5">
+        <v>150</v>
+      </c>
+      <c r="E57" s="5">
+        <v>150</v>
       </c>
       <c r="F57" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="5">
         <v>1030</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="2">
-        <v>250</v>
-      </c>
-      <c r="E58" s="2">
-        <v>250</v>
+      <c r="D58" s="5">
+        <v>150</v>
+      </c>
+      <c r="E58" s="5">
+        <v>150</v>
       </c>
       <c r="F58" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="5">
         <v>1030</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="2">
-        <v>250</v>
-      </c>
-      <c r="E59" s="2">
-        <v>250</v>
+      <c r="D59" s="5">
+        <v>150</v>
+      </c>
+      <c r="E59" s="5">
+        <v>150</v>
       </c>
       <c r="F59" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="5">
         <v>1030</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="2">
-        <v>250</v>
-      </c>
-      <c r="E60" s="2">
-        <v>250</v>
+      <c r="D60" s="5">
+        <v>150</v>
+      </c>
+      <c r="E60" s="5">
+        <v>150</v>
       </c>
       <c r="F60" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="5">
         <v>1030</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="2">
-        <v>250</v>
-      </c>
-      <c r="E61" s="2">
-        <v>250</v>
+      <c r="D61" s="5">
+        <v>150</v>
+      </c>
+      <c r="E61" s="5">
+        <v>150</v>
       </c>
       <c r="F61" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="5">
         <v>1030</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="2">
-        <v>250</v>
-      </c>
-      <c r="E62" s="2">
-        <v>250</v>
+      <c r="D62" s="5">
+        <v>150</v>
+      </c>
+      <c r="E62" s="5">
+        <v>150</v>
       </c>
       <c r="F62" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="5">
         <v>1030</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="2">
-        <v>250</v>
-      </c>
-      <c r="E63" s="2">
-        <v>250</v>
+      <c r="D63" s="5">
+        <v>150</v>
+      </c>
+      <c r="E63" s="5">
+        <v>150</v>
       </c>
       <c r="F63" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="5">
         <v>1030</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="2">
-        <v>250</v>
-      </c>
-      <c r="E64" s="2">
-        <v>250</v>
+      <c r="D64" s="5">
+        <v>150</v>
+      </c>
+      <c r="E64" s="5">
+        <v>150</v>
       </c>
       <c r="F64" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="5">
         <v>1030</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="2">
-        <v>250</v>
-      </c>
-      <c r="E65" s="2">
-        <v>250</v>
+      <c r="D65" s="5">
+        <v>150</v>
+      </c>
+      <c r="E65" s="5">
+        <v>150</v>
       </c>
       <c r="F65" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="5">
         <v>1030</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="2">
-        <v>250</v>
-      </c>
-      <c r="E66" s="2">
-        <v>250</v>
+      <c r="D66" s="5">
+        <v>150</v>
+      </c>
+      <c r="E66" s="5">
+        <v>150</v>
       </c>
       <c r="F66" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="5">
         <v>1030</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="2">
-        <v>250</v>
-      </c>
-      <c r="E67" s="2">
-        <v>250</v>
+      <c r="D67" s="5">
+        <v>150</v>
+      </c>
+      <c r="E67" s="5">
+        <v>150</v>
       </c>
       <c r="F67" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="5">
         <v>1030</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="2">
-        <v>250</v>
-      </c>
-      <c r="E68" s="2">
-        <v>250</v>
+      <c r="D68" s="5">
+        <v>150</v>
+      </c>
+      <c r="E68" s="5">
+        <v>150</v>
       </c>
       <c r="F68" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -8931,13 +8940,13 @@
         <v>43</v>
       </c>
       <c r="D69" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E69" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -8951,13 +8960,13 @@
         <v>43</v>
       </c>
       <c r="D70" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E70" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -8971,13 +8980,13 @@
         <v>43</v>
       </c>
       <c r="D71" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E71" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -8991,13 +9000,13 @@
         <v>110</v>
       </c>
       <c r="D72" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E72" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -9011,13 +9020,13 @@
         <v>110</v>
       </c>
       <c r="D73" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E73" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F73" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -9031,13 +9040,13 @@
         <v>110</v>
       </c>
       <c r="D74" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E74" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -9051,13 +9060,13 @@
         <v>110</v>
       </c>
       <c r="D75" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E75" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -9071,13 +9080,13 @@
         <v>110</v>
       </c>
       <c r="D76" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E76" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -9091,13 +9100,13 @@
         <v>110</v>
       </c>
       <c r="D77" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E77" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -9111,13 +9120,13 @@
         <v>110</v>
       </c>
       <c r="D78" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E78" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -9131,13 +9140,13 @@
         <v>110</v>
       </c>
       <c r="D79" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E79" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -9151,13 +9160,13 @@
         <v>110</v>
       </c>
       <c r="D80" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E80" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -9171,13 +9180,13 @@
         <v>43</v>
       </c>
       <c r="D81" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E81" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -9191,13 +9200,13 @@
         <v>43</v>
       </c>
       <c r="D82" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E82" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -9211,13 +9220,13 @@
         <v>110</v>
       </c>
       <c r="D83" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E83" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -9231,13 +9240,13 @@
         <v>43</v>
       </c>
       <c r="D84" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E84" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -9251,13 +9260,13 @@
         <v>43</v>
       </c>
       <c r="D85" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E85" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -9271,13 +9280,13 @@
         <v>43</v>
       </c>
       <c r="D86" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E86" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -9291,13 +9300,13 @@
         <v>110</v>
       </c>
       <c r="D87" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E87" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -9311,13 +9320,13 @@
         <v>110</v>
       </c>
       <c r="D88" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E88" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F88" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -9331,13 +9340,13 @@
         <v>110</v>
       </c>
       <c r="D89" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E89" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F89" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -9351,13 +9360,13 @@
         <v>43</v>
       </c>
       <c r="D90" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E90" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -9371,13 +9380,13 @@
         <v>43</v>
       </c>
       <c r="D91" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E91" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F91" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -9391,13 +9400,13 @@
         <v>43</v>
       </c>
       <c r="D92" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E92" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -9411,13 +9420,13 @@
         <v>43</v>
       </c>
       <c r="D93" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E93" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F93" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -9431,13 +9440,13 @@
         <v>110</v>
       </c>
       <c r="D94" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E94" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -9451,13 +9460,13 @@
         <v>110</v>
       </c>
       <c r="D95" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E95" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -9471,13 +9480,13 @@
         <v>110</v>
       </c>
       <c r="D96" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E96" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F96" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -9491,13 +9500,13 @@
         <v>110</v>
       </c>
       <c r="D97" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E97" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F97" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -9511,13 +9520,13 @@
         <v>110</v>
       </c>
       <c r="D98" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E98" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -9531,13 +9540,13 @@
         <v>110</v>
       </c>
       <c r="D99" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E99" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F99" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -9551,13 +9560,13 @@
         <v>110</v>
       </c>
       <c r="D100" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E100" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F100" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -9571,13 +9580,13 @@
         <v>110</v>
       </c>
       <c r="D101" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E101" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F101" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -9591,13 +9600,13 @@
         <v>110</v>
       </c>
       <c r="D102" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E102" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F102" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -9611,13 +9620,13 @@
         <v>43</v>
       </c>
       <c r="D103" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E103" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -9631,13 +9640,13 @@
         <v>110</v>
       </c>
       <c r="D104" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E104" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F104" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -9651,13 +9660,13 @@
         <v>43</v>
       </c>
       <c r="D105" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E105" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F105" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -9671,13 +9680,13 @@
         <v>110</v>
       </c>
       <c r="D106" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E106" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -9691,13 +9700,13 @@
         <v>110</v>
       </c>
       <c r="D107" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E107" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F107" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -9711,13 +9720,13 @@
         <v>110</v>
       </c>
       <c r="D108" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E108" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -9731,13 +9740,13 @@
         <v>110</v>
       </c>
       <c r="D109" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E109" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -9751,13 +9760,13 @@
         <v>43</v>
       </c>
       <c r="D110" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E110" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -9771,13 +9780,13 @@
         <v>110</v>
       </c>
       <c r="D111" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E111" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -9791,13 +9800,13 @@
         <v>43</v>
       </c>
       <c r="D112" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E112" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -9811,13 +9820,13 @@
         <v>43</v>
       </c>
       <c r="D113" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E113" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F113" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -9831,13 +9840,13 @@
         <v>43</v>
       </c>
       <c r="D114" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E114" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -9851,13 +9860,13 @@
         <v>110</v>
       </c>
       <c r="D115" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E115" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F115" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -9871,13 +9880,13 @@
         <v>110</v>
       </c>
       <c r="D116" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E116" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F116" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -9891,13 +9900,13 @@
         <v>110</v>
       </c>
       <c r="D117" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E117" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F117" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -9911,13 +9920,13 @@
         <v>110</v>
       </c>
       <c r="D118" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E118" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -9931,13 +9940,13 @@
         <v>110</v>
       </c>
       <c r="D119" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E119" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F119" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -9951,13 +9960,13 @@
         <v>110</v>
       </c>
       <c r="D120" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E120" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F120" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -9971,13 +9980,13 @@
         <v>110</v>
       </c>
       <c r="D121" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E121" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F121" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -9991,13 +10000,13 @@
         <v>110</v>
       </c>
       <c r="D122" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E122" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F122" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -10011,13 +10020,13 @@
         <v>110</v>
       </c>
       <c r="D123" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E123" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F123" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -10031,13 +10040,13 @@
         <v>43</v>
       </c>
       <c r="D124" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E124" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F124" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -10051,13 +10060,13 @@
         <v>110</v>
       </c>
       <c r="D125" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E125" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F125" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -10071,13 +10080,13 @@
         <v>43</v>
       </c>
       <c r="D126" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E126" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F126" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -10091,13 +10100,13 @@
         <v>43</v>
       </c>
       <c r="D127" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E127" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F127" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -10111,13 +10120,13 @@
         <v>43</v>
       </c>
       <c r="D128" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E128" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F128" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -10131,13 +10140,13 @@
         <v>43</v>
       </c>
       <c r="D129" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E129" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F129" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -10151,13 +10160,13 @@
         <v>43</v>
       </c>
       <c r="D130" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E130" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F130" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -10171,13 +10180,13 @@
         <v>43</v>
       </c>
       <c r="D131" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E131" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F131" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -10191,13 +10200,13 @@
         <v>43</v>
       </c>
       <c r="D132" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E132" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F132" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -10211,13 +10220,13 @@
         <v>110</v>
       </c>
       <c r="D133" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E133" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F133" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -10231,13 +10240,13 @@
         <v>110</v>
       </c>
       <c r="D134" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E134" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F134" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -10251,13 +10260,13 @@
         <v>110</v>
       </c>
       <c r="D135" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E135" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F135" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -10271,13 +10280,13 @@
         <v>110</v>
       </c>
       <c r="D136" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E136" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F136" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -10291,13 +10300,13 @@
         <v>110</v>
       </c>
       <c r="D137" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E137" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F137" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -10311,13 +10320,13 @@
         <v>43</v>
       </c>
       <c r="D138" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E138" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F138" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -10331,13 +10340,13 @@
         <v>110</v>
       </c>
       <c r="D139" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E139" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F139" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -10351,13 +10360,13 @@
         <v>43</v>
       </c>
       <c r="D140" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E140" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F140" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -10371,13 +10380,13 @@
         <v>43</v>
       </c>
       <c r="D141" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E141" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F141" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -10391,13 +10400,13 @@
         <v>43</v>
       </c>
       <c r="D142" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E142" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F142" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -10411,13 +10420,13 @@
         <v>43</v>
       </c>
       <c r="D143" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E143" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F143" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -10431,13 +10440,13 @@
         <v>43</v>
       </c>
       <c r="D144" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E144" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F144" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -10451,13 +10460,13 @@
         <v>110</v>
       </c>
       <c r="D145" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E145" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F145" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -10471,13 +10480,13 @@
         <v>43</v>
       </c>
       <c r="D146" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E146" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F146" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -10491,13 +10500,13 @@
         <v>110</v>
       </c>
       <c r="D147" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E147" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F147" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -10511,13 +10520,13 @@
         <v>110</v>
       </c>
       <c r="D148" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E148" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F148" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -10531,13 +10540,13 @@
         <v>110</v>
       </c>
       <c r="D149" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E149" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F149" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -10551,13 +10560,13 @@
         <v>110</v>
       </c>
       <c r="D150" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E150" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F150" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -10571,13 +10580,13 @@
         <v>110</v>
       </c>
       <c r="D151" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E151" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F151" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -10591,13 +10600,13 @@
         <v>110</v>
       </c>
       <c r="D152" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E152" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F152" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -10611,13 +10620,13 @@
         <v>110</v>
       </c>
       <c r="D153" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E153" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F153" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -10631,13 +10640,13 @@
         <v>110</v>
       </c>
       <c r="D154" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E154" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F154" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -10651,13 +10660,13 @@
         <v>110</v>
       </c>
       <c r="D155" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E155" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F155" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -10671,13 +10680,13 @@
         <v>110</v>
       </c>
       <c r="D156" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E156" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F156" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -10691,13 +10700,13 @@
         <v>43</v>
       </c>
       <c r="D157" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E157" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F157" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -10711,13 +10720,13 @@
         <v>110</v>
       </c>
       <c r="D158" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E158" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F158" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -10731,13 +10740,13 @@
         <v>110</v>
       </c>
       <c r="D159" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E159" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F159" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -10751,13 +10760,13 @@
         <v>110</v>
       </c>
       <c r="D160" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E160" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F160" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -10771,13 +10780,13 @@
         <v>110</v>
       </c>
       <c r="D161" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E161" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F161" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -10791,13 +10800,13 @@
         <v>43</v>
       </c>
       <c r="D162" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E162" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F162" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -10811,13 +10820,13 @@
         <v>110</v>
       </c>
       <c r="D163" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E163" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F163" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -10831,13 +10840,13 @@
         <v>110</v>
       </c>
       <c r="D164" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E164" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F164" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -10851,13 +10860,13 @@
         <v>43</v>
       </c>
       <c r="D165" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E165" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F165" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -10871,13 +10880,13 @@
         <v>110</v>
       </c>
       <c r="D166" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E166" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F166" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -10891,13 +10900,13 @@
         <v>110</v>
       </c>
       <c r="D167" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E167" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F167" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -10911,13 +10920,13 @@
         <v>43</v>
       </c>
       <c r="D168" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E168" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F168" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -10931,13 +10940,13 @@
         <v>43</v>
       </c>
       <c r="D169" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E169" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F169" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -10951,13 +10960,13 @@
         <v>110</v>
       </c>
       <c r="D170" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E170" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F170" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -10971,13 +10980,13 @@
         <v>110</v>
       </c>
       <c r="D171" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E171" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F171" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -10991,13 +11000,13 @@
         <v>110</v>
       </c>
       <c r="D172" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E172" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F172" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -11011,13 +11020,13 @@
         <v>110</v>
       </c>
       <c r="D173" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E173" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F173" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -11031,13 +11040,13 @@
         <v>110</v>
       </c>
       <c r="D174" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E174" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F174" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -11051,13 +11060,13 @@
         <v>110</v>
       </c>
       <c r="D175" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E175" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F175" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -11071,13 +11080,13 @@
         <v>110</v>
       </c>
       <c r="D176" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E176" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F176" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -11091,13 +11100,13 @@
         <v>110</v>
       </c>
       <c r="D177" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E177" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F177" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -11111,13 +11120,13 @@
         <v>110</v>
       </c>
       <c r="D178" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E178" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F178" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
